--- a/different_software.xlsx
+++ b/different_software.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,25 +274,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,23 +578,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
@@ -613,34 +613,34 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="22"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="O3" s="22"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0.23325062034739399</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0.22774659182036799</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0.21650264950794801</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0.22511485451761101</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0.44692737430167601</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0.58693911274209376</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -969,7 +969,7 @@
         <v>0.51970133364606119</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -982,14 +982,14 @@
         <v>0.30303653472670211</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>10</v>
       </c>
@@ -1008,34 +1008,34 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="25" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="26"/>
+      <c r="K17" s="25" t="s">
         <v>4</v>
       </c>
       <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="22" t="s">
         <v>5</v>
       </c>
       <c r="O17" s="22"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0.224925891324634</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0.27243152350907102</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>0.26999738637645798</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.36513191931851502</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0.39076739111354403</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <f ca="1">AVERAGE(B19:B24)</f>
         <v>0.72301507537688392</v>
@@ -1397,7 +1397,7 @@
         <v>0.30465082232844443</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0.66208818140401693</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.53779609929077976</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1439,14 +1439,14 @@
         <v>0.34299556404605064</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="O30" s="12"/>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.23794220399483501</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.247949056528702</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0.166870122959524</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0.248653992907585</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.27612605072941099</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0.69541035733925471</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>0.55243715529622517</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1834,49 +1834,49 @@
         <v>0.40537553942258919</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="B29:P29"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
